--- a/biology/Zoologie/Hamadryas_amphinome/Hamadryas_amphinome.xlsx
+++ b/biology/Zoologie/Hamadryas_amphinome/Hamadryas_amphinome.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Craqueur rouge
 Hamadryas amphinome, le  Craqueur rouge est une  espèce de lépidoptères (papillons) de la famille des Nymphalidae et de la sous-famille des Biblidinae et du genre Hamadryas.
@@ -512,11 +524,11 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hamadryas amphinome a été décrit par Carl von Linné en 1767 sous le nom initial de Papilio amphinome[1].
-Nom vernaculaire
-Hamadryas amphinome se nomme Craqueur rouge en français et Red Cracker en anglais[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hamadryas amphinome a été décrit par Carl von Linné en 1767 sous le nom initial de Papilio amphinome.
 </t>
         </is>
       </c>
@@ -542,10 +554,49 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Nom vernaculaire</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hamadryas amphinome se nomme Craqueur rouge en français et Red Cracker en anglais.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Hamadryas_amphinome</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hamadryas_amphinome</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Hamadryas amphinome amphinome; présent en Colombie, en Bolivie et au Brésil.
 Hamadryas amphinome fumosa (Fruhstorfer, 1915); présent en Colombie.
@@ -554,71 +605,38 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Hamadryas_amphinome</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Hamadryas_amphinome</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Hamadryas_amphinome</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hamadryas_amphinome</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hamadryas amphinome est un grand papillon d'une envergure de 78 mm à 86 mm au ailes antérieures à bord costal vouté, qui présente un dessus marbré de gris de bleu avec aux ailes antérieures une bande blanche allant de la moitié du bord costal à l'angle externe[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hamadryas amphinome est un grand papillon d'une envergure de 78 mm à 86 mm au ailes antérieures à bord costal vouté, qui présente un dessus marbré de gris de bleu avec aux ailes antérieures une bande blanche allant de la moitié du bord costal à l'angle externe.
 Le revers des ailes antérieures est marron avec la même bande blanche allant de la moitié du bord costal à l'angle externe alors que les ailes postérieures sont rouge brique d'où son nom de Craqueur rouge.
 			Pérou
 			Mato Grosso, Brésil
-Chenille
-Les œufs sont blancs et donnent des chenilles qui deviennent noires à marques jaunes et développent de nombreuses épines[4].
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Hamadryas_amphinome</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Hamadryas_amphinome</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hamadryas amphinome vole toute l'année en plusieurs générations au Mexique[3].
-Plantes hôtes
-La plante hôte de sa chenille est une Euphorbiaceae (Dalechampia scandens)[1].
 </t>
         </is>
       </c>
@@ -644,18 +662,197 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Chenille</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les œufs sont blancs et donnent des chenilles qui deviennent noires à marques jaunes et développent de nombreuses épines.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Hamadryas_amphinome</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hamadryas_amphinome</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hamadryas amphinome vole toute l'année en plusieurs générations au Mexique.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Hamadryas_amphinome</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hamadryas_amphinome</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La plante hôte de sa chenille est une Euphorbiaceae (Dalechampia scandens).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Hamadryas_amphinome</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hamadryas_amphinome</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hamadryas amphinome est présent au Mexique, à Cuba, en Colombie, en Bolivie, au Pérou, en Argentine, au Brésil, en Guyana et en Guyane[1]. Il peut se rencontrer dans l’extrême sud du Texas[3].
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hamadryas amphinome est présent au Mexique, à Cuba, en Colombie, en Bolivie, au Pérou, en Argentine, au Brésil, en Guyana et en Guyane. Il peut se rencontrer dans l’extrême sud du Texas.
 Sur les autres projets Wikimedia :
 Hamadryas amphinome, sur Wikimedia CommonsHamadryas amphinome, sur Wikispecies
-Biotope
-Hamadryas amphinome réside en forêt tropicale[3].
-Protection
-Pas de statut de protection particulier.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Hamadryas_amphinome</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hamadryas_amphinome</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hamadryas amphinome réside en forêt tropicale.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Hamadryas_amphinome</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hamadryas_amphinome</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 </t>
         </is>
       </c>
